--- a/exercises/ex051.MF_pipe_gas_water.xlsx
+++ b/exercises/ex051.MF_pipe_gas_water.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr updateLinks="always" codeName="Workbook________" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\exercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497283B7-26A1-475E-ADC9-7964D6AADDF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D484EDF-59BE-4B20-8FC7-DE65CDDBFE33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2062" yWindow="758" windowWidth="20715" windowHeight="13275" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22755" yWindow="2025" windowWidth="22410" windowHeight="18795" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -52,7 +52,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -506,7 +508,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -764,7 +766,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -927,7 +929,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -973,79 +975,79 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.117268653967599</c:v>
+                  <c:v>39.211484193703612</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.423271629634598</c:v>
+                  <c:v>43.628756315582748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.907826909439251</c:v>
+                  <c:v>48.239325453331631</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.560051331935099</c:v>
+                  <c:v>53.028785590984953</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.368627927918276</c:v>
+                  <c:v>57.98132294217536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.322049889659738</c:v>
+                  <c:v>63.080329070843682</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.408835970056842</c:v>
+                  <c:v>68.342786506415322</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72.669423801542663</c:v>
+                  <c:v>73.866149934711174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.19927836227312</c:v>
+                  <c:v>79.639113717907378</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.996436113044595</c:v>
+                  <c:v>85.642849229263248</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90.05646731718133</c:v>
+                  <c:v>91.857510058964223</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>96.373128831124362</c:v>
+                  <c:v>98.246532708461643</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>102.78786874558877</c:v>
+                  <c:v>104.66840811775796</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>109.20502801446338</c:v>
+                  <c:v>111.08766938759001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>115.62171626747354</c:v>
+                  <c:v>117.50628820122716</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>122.03752698501756</c:v>
+                  <c:v>123.92388237009114</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>128.45211604090676</c:v>
+                  <c:v>130.34012755038563</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>134.86518962699688</c:v>
+                  <c:v>136.75474619792575</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>141.27649495888309</c:v>
+                  <c:v>143.16749903425182</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>147.68581302938338</c:v>
+                  <c:v>149.5781783699735</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>154.09295289153488</c:v>
+                  <c:v>155.98660282080647</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>160.49774709966107</c:v>
+                  <c:v>162.39261308188824</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>166.90004803847003</c:v>
+                  <c:v>168.79606851628037</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>173.29972494029622</c:v>
+                  <c:v>175.1968443763017</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>179.6966614416101</c:v>
+                  <c:v>181.59482952216362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,43 +1179,43 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>31.729558043089941</c:v>
+                  <c:v>30.603238030240913</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.672980646767584</c:v>
+                  <c:v>34.554145749084981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.800394013814682</c:v>
+                  <c:v>38.718607639253271</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.128325123306347</c:v>
+                  <c:v>43.097269540867529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.621324324620936</c:v>
+                  <c:v>47.658632676663366</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.286667716265242</c:v>
+                  <c:v>52.407506204638921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.107350120507959</c:v>
+                  <c:v>57.315339895447408</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.056691479731711</c:v>
+                  <c:v>62.36989687835991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68.154797207997021</c:v>
+                  <c:v>67.577826333941204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73.420803405672785</c:v>
+                  <c:v>73.022605190669282</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78.963313049622656</c:v>
+                  <c:v>78.724808011871261</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84.767093329385659</c:v>
+                  <c:v>84.658093773453885</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.825032367490707</c:v>
+                  <c:v>90.801651733168043</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>97.147159459481017</c:v>
@@ -1379,79 +1381,79 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.92486873630195</c:v>
+                  <c:v>101.24425281327495</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.84463681204591</c:v>
+                  <c:v>102.48616173351451</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.75973069880401</c:v>
+                  <c:v>103.72572376975089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103.6705431538376</c:v>
+                  <c:v>104.96294082417724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104.57743510559796</c:v>
+                  <c:v>106.19781917935944</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.48073755560239</c:v>
+                  <c:v>107.43036902554311</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106.38075346834252</c:v>
+                  <c:v>108.66060402578971</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>107.27775962662245</c:v>
+                  <c:v>109.88854091673325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>108.17200843514293</c:v>
+                  <c:v>111.11419914269219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109.0637296592308</c:v>
+                  <c:v>112.33760052098042</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>109.95313208936579</c:v>
+                  <c:v>113.55876893629038</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>110.84040512518528</c:v>
+                  <c:v>114.77773006209661</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>111.72572027497709</c:v>
+                  <c:v>115.99451110714006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112.60923256887936</c:v>
+                  <c:v>117.20914058510542</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>113.49108188540825</c:v>
+                  <c:v>118.42164810573944</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>114.37139419228215</c:v>
+                  <c:v>119.63206418573826</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>115.2502827034893</c:v>
+                  <c:v>120.84042007783252</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>116.1278489551844</c:v>
+                  <c:v>122.04674761661066</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>117.00418380367898</c:v>
+                  <c:v>123.251079079696</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>117.87936834902844</c:v>
+                  <c:v>124.45344706300666</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>118.75347478802409</c:v>
+                  <c:v>125.65388436890814</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>119.62656720053643</c:v>
+                  <c:v>126.85242390615348</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120.49870227314587</c:v>
+                  <c:v>128.0490986005959</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>121.36992996407533</c:v>
+                  <c:v>129.24394131572376</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>122.24029411328245</c:v>
+                  <c:v>130.43698478215194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1575,82 +1577,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>100.00000000029803</c:v>
+                  <c:v>99.999999999935199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.92486873659135</c:v>
+                  <c:v>101.24425281321363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.84463681232342</c:v>
+                  <c:v>102.48616173345685</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.75973069905999</c:v>
+                  <c:v>103.72572376970039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103.67054315407314</c:v>
+                  <c:v>104.96294082413314</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104.57743510581116</c:v>
+                  <c:v>106.19781917932123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.48073755580373</c:v>
+                  <c:v>107.43036902550783</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106.38075346852372</c:v>
+                  <c:v>108.66060402575891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>107.27775962678545</c:v>
+                  <c:v>109.8885409167067</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>108.17200843528977</c:v>
+                  <c:v>111.11419914266931</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109.06372965936002</c:v>
+                  <c:v>112.33760052096096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>109.95313208948566</c:v>
+                  <c:v>113.55876893627267</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>110.84040512528938</c:v>
+                  <c:v>114.77773006208156</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>111.72572027506814</c:v>
+                  <c:v>115.99451110712742</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112.60923256895943</c:v>
+                  <c:v>117.20914058509474</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>113.49108188547574</c:v>
+                  <c:v>118.4216481057307</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>114.37139419234289</c:v>
+                  <c:v>119.63206418573056</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>115.25028270353826</c:v>
+                  <c:v>120.84042007782637</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>116.12784895522478</c:v>
+                  <c:v>122.04674761660583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>117.00418380371272</c:v>
+                  <c:v>123.2510790796921</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>117.87936834905359</c:v>
+                  <c:v>124.45344706300384</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>118.75347478804454</c:v>
+                  <c:v>125.65388436890588</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>119.62656720054817</c:v>
+                  <c:v>126.8524239061522</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120.49870227315228</c:v>
+                  <c:v>128.04909860059524</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>121.36992996407831</c:v>
+                  <c:v>129.24394131572345</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>122.24029411328245</c:v>
+                  <c:v>130.43698478215194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2037,7 +2039,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2075,7 +2077,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251715584"/>
@@ -2154,7 +2156,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2192,7 +2194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="217505088"/>
@@ -2234,7 +2236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2264,7 +2266,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3018,7 +3020,7 @@
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
-      <definedName name="MF_calibr_pipe_m3day"/>
+      <definedName name="MF_calibr_pipe"/>
       <definedName name="MF_p_pipe_atma"/>
       <definedName name="PVT_encode_string"/>
     </definedNames>
@@ -3332,29 +3334,29 @@
   </sheetPr>
   <dimension ref="A1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.796875" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" customWidth="1"/>
-    <col min="4" max="4" width="9.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" customWidth="1"/>
-    <col min="10" max="10" width="13.796875" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" customWidth="1"/>
-    <col min="12" max="13" width="10.19921875" customWidth="1"/>
-    <col min="23" max="26" width="9.19921875" customWidth="1"/>
-    <col min="27" max="27" width="5.796875" customWidth="1"/>
-    <col min="28" max="28" width="9.19921875" hidden="1" customWidth="1"/>
-    <col min="29" max="33" width="9.19921875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="13" width="10.140625" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="5.85546875" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="33" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3363,20 +3365,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -3392,7 +3394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
@@ -3408,7 +3410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -3424,7 +3426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
@@ -3442,7 +3444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
@@ -3460,7 +3462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
@@ -3478,7 +3480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
@@ -3496,7 +3498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
@@ -3507,7 +3509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -3518,7 +3520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.149999999999999" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>42</v>
       </c>
@@ -3534,12 +3536,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
@@ -3550,7 +3552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
@@ -3561,7 +3563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>52</v>
       </c>
@@ -3572,13 +3574,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
@@ -3606,7 +3608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>29</v>
       </c>
@@ -3617,7 +3619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>33</v>
       </c>
@@ -3628,7 +3630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>34</v>
       </c>
@@ -3639,7 +3641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>51</v>
       </c>
@@ -3650,7 +3652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>35</v>
       </c>
@@ -3661,7 +3663,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>36</v>
       </c>
@@ -3672,13 +3674,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B31" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="19" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,020;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.020;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -3700,13 +3702,13 @@
       <c r="U31" s="20"/>
       <c r="V31" s="21"/>
     </row>
-    <row r="32" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B32" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="19" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,,,,1)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,020;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:True;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.020;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:True;</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
@@ -3728,13 +3730,13 @@
       <c r="U32" s="20"/>
       <c r="V32" s="21"/>
     </row>
-    <row r="33" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="19" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_kill_fluid_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,100;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.100;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
@@ -3756,8 +3758,8 @@
       <c r="U33" s="20"/>
       <c r="V33" s="21"/>
     </row>
-    <row r="34" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>41</v>
       </c>
@@ -3768,7 +3770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>43</v>
       </c>
@@ -3776,7 +3778,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:22" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C37" s="13" t="s">
         <v>28</v>
       </c>
@@ -3820,7 +3822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>1</v>
       </c>
@@ -3841,7 +3843,7 @@
       </c>
       <c r="G38" s="22">
         <f t="array" ref="G38:H38">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C38,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D38)</f>
-        <v>31.729558043089941</v>
+        <v>30.603238030240913</v>
       </c>
       <c r="H38" s="22">
         <v>20</v>
@@ -3856,7 +3858,7 @@
       </c>
       <c r="L38" s="4">
         <f t="array" ref="L38:M38">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C38,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D38)</f>
-        <v>100.00000000029803</v>
+        <v>99.999999999935199</v>
       </c>
       <c r="M38" s="4">
         <v>20</v>
@@ -3877,7 +3879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>2</v>
       </c>
@@ -3891,28 +3893,28 @@
       </c>
       <c r="E39" s="22">
         <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D39)</f>
-        <v>39.117268653967599</v>
+        <v>39.211484193703612</v>
       </c>
       <c r="F39" s="22">
         <v>21.6</v>
       </c>
       <c r="G39" s="22">
         <f t="array" ref="G39:H39">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C39,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D39)</f>
-        <v>35.672980646767584</v>
+        <v>34.554145749084981</v>
       </c>
       <c r="H39" s="22">
         <v>21.6</v>
       </c>
       <c r="J39" s="22">
         <f t="array" ref="J39:K39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D39)</f>
-        <v>100.92486873630195</v>
+        <v>101.24425281327495</v>
       </c>
       <c r="K39" s="22">
         <v>21.6</v>
       </c>
       <c r="L39" s="4">
         <f t="array" ref="L39:M39">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C39,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D39)</f>
-        <v>100.92486873659135</v>
+        <v>101.24425281321363</v>
       </c>
       <c r="M39" s="4">
         <v>21.6</v>
@@ -3932,7 +3934,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="40" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>3</v>
       </c>
@@ -3946,28 +3948,28 @@
       </c>
       <c r="E40" s="22">
         <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D40)</f>
-        <v>43.423271629634598</v>
+        <v>43.628756315582748</v>
       </c>
       <c r="F40" s="22">
         <v>23.200000000000003</v>
       </c>
       <c r="G40" s="22">
         <f t="array" ref="G40:H40">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C40,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D40)</f>
-        <v>39.800394013814682</v>
+        <v>38.718607639253271</v>
       </c>
       <c r="H40" s="22">
         <v>23.200000000000003</v>
       </c>
       <c r="J40" s="22">
         <f t="array" ref="J40:K40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D40)</f>
-        <v>101.84463681204591</v>
+        <v>102.48616173351451</v>
       </c>
       <c r="K40" s="22">
         <v>23.200000000000003</v>
       </c>
       <c r="L40" s="4">
         <f t="array" ref="L40:M40">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C40,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D40)</f>
-        <v>101.84463681232342</v>
+        <v>102.48616173345685</v>
       </c>
       <c r="M40" s="4">
         <v>23.200000000000003</v>
@@ -3987,7 +3989,7 @@
         <v>23.200000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>4</v>
       </c>
@@ -4001,28 +4003,28 @@
       </c>
       <c r="E41" s="22">
         <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D41)</f>
-        <v>47.907826909439251</v>
+        <v>48.239325453331631</v>
       </c>
       <c r="F41" s="22">
         <v>24.800000000000004</v>
       </c>
       <c r="G41" s="22">
         <f t="array" ref="G41:H41">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C41,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D41)</f>
-        <v>44.128325123306347</v>
+        <v>43.097269540867529</v>
       </c>
       <c r="H41" s="22">
         <v>24.800000000000004</v>
       </c>
       <c r="J41" s="22">
         <f t="array" ref="J41:K41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D41)</f>
-        <v>102.75973069880401</v>
+        <v>103.72572376975089</v>
       </c>
       <c r="K41" s="22">
         <v>24.800000000000004</v>
       </c>
       <c r="L41" s="4">
         <f t="array" ref="L41:M41">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C41,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D41)</f>
-        <v>102.75973069905999</v>
+        <v>103.72572376970039</v>
       </c>
       <c r="M41" s="4">
         <v>24.800000000000004</v>
@@ -4042,7 +4044,7 @@
         <v>24.800000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>5</v>
       </c>
@@ -4056,28 +4058,28 @@
       </c>
       <c r="E42" s="22">
         <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D42)</f>
-        <v>52.560051331935099</v>
+        <v>53.028785590984953</v>
       </c>
       <c r="F42" s="22">
         <v>26.400000000000006</v>
       </c>
       <c r="G42" s="22">
         <f t="array" ref="G42:H42">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C42,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D42)</f>
-        <v>48.621324324620936</v>
+        <v>47.658632676663366</v>
       </c>
       <c r="H42" s="22">
         <v>26.400000000000006</v>
       </c>
       <c r="J42" s="22">
         <f t="array" ref="J42:K42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D42)</f>
-        <v>103.6705431538376</v>
+        <v>104.96294082417724</v>
       </c>
       <c r="K42" s="22">
         <v>26.400000000000006</v>
       </c>
       <c r="L42" s="4">
         <f t="array" ref="L42:M42">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C42,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D42)</f>
-        <v>103.67054315407314</v>
+        <v>104.96294082413314</v>
       </c>
       <c r="M42" s="4">
         <v>26.400000000000006</v>
@@ -4097,7 +4099,7 @@
         <v>26.400000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>6</v>
       </c>
@@ -4111,28 +4113,28 @@
       </c>
       <c r="E43" s="22">
         <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D43)</f>
-        <v>57.368627927918276</v>
+        <v>57.98132294217536</v>
       </c>
       <c r="F43" s="22">
         <v>28.000000000000007</v>
       </c>
       <c r="G43" s="22">
         <f t="array" ref="G43:H43">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C43,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D43)</f>
-        <v>53.286667716265242</v>
+        <v>52.407506204638921</v>
       </c>
       <c r="H43" s="22">
         <v>28.000000000000007</v>
       </c>
       <c r="J43" s="22">
         <f t="array" ref="J43:K43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D43)</f>
-        <v>104.57743510559796</v>
+        <v>106.19781917935944</v>
       </c>
       <c r="K43" s="22">
         <v>28.000000000000007</v>
       </c>
       <c r="L43" s="4">
         <f t="array" ref="L43:M43">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C43,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D43)</f>
-        <v>104.57743510581116</v>
+        <v>106.19781917932123</v>
       </c>
       <c r="M43" s="4">
         <v>28.000000000000007</v>
@@ -4152,7 +4154,7 @@
         <v>28.000000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>7</v>
       </c>
@@ -4166,28 +4168,28 @@
       </c>
       <c r="E44" s="22">
         <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D44)</f>
-        <v>62.322049889659738</v>
+        <v>63.080329070843682</v>
       </c>
       <c r="F44" s="22">
         <v>29.600000000000009</v>
       </c>
       <c r="G44" s="22">
         <f t="array" ref="G44:H44">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C44,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D44)</f>
-        <v>58.107350120507959</v>
+        <v>57.315339895447408</v>
       </c>
       <c r="H44" s="22">
         <v>29.600000000000009</v>
       </c>
       <c r="J44" s="22">
         <f t="array" ref="J44:K44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D44)</f>
-        <v>105.48073755560239</v>
+        <v>107.43036902554311</v>
       </c>
       <c r="K44" s="22">
         <v>29.600000000000009</v>
       </c>
       <c r="L44" s="4">
         <f t="array" ref="L44:M44">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C44,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D44)</f>
-        <v>105.48073755580373</v>
+        <v>107.43036902550783</v>
       </c>
       <c r="M44" s="4">
         <v>29.600000000000009</v>
@@ -4207,7 +4209,7 @@
         <v>29.600000000000009</v>
       </c>
     </row>
-    <row r="45" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>8</v>
       </c>
@@ -4221,28 +4223,28 @@
       </c>
       <c r="E45" s="22">
         <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D45)</f>
-        <v>67.408835970056842</v>
+        <v>68.342786506415322</v>
       </c>
       <c r="F45" s="22">
         <v>31.20000000000001</v>
       </c>
       <c r="G45" s="22">
         <f t="array" ref="G45:H45">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C45,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D45)</f>
-        <v>63.056691479731711</v>
+        <v>62.36989687835991</v>
       </c>
       <c r="H45" s="22">
         <v>31.20000000000001</v>
       </c>
       <c r="J45" s="22">
         <f t="array" ref="J45:K45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D45)</f>
-        <v>106.38075346834252</v>
+        <v>108.66060402578971</v>
       </c>
       <c r="K45" s="22">
         <v>31.20000000000001</v>
       </c>
       <c r="L45" s="4">
         <f t="array" ref="L45:M45">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C45,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D45)</f>
-        <v>106.38075346852372</v>
+        <v>108.66060402575891</v>
       </c>
       <c r="M45" s="4">
         <v>31.20000000000001</v>
@@ -4262,7 +4264,7 @@
         <v>31.20000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>9</v>
       </c>
@@ -4276,28 +4278,28 @@
       </c>
       <c r="E46" s="22">
         <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D46)</f>
-        <v>72.669423801542663</v>
+        <v>73.866149934711174</v>
       </c>
       <c r="F46" s="22">
         <v>32.800000000000011</v>
       </c>
       <c r="G46" s="22">
         <f t="array" ref="G46:H46">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C46,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D46)</f>
-        <v>68.154797207997021</v>
+        <v>67.577826333941204</v>
       </c>
       <c r="H46" s="22">
         <v>32.800000000000011</v>
       </c>
       <c r="J46" s="22">
         <f t="array" ref="J46:K46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D46)</f>
-        <v>107.27775962662245</v>
+        <v>109.88854091673325</v>
       </c>
       <c r="K46" s="22">
         <v>32.800000000000011</v>
       </c>
       <c r="L46" s="4">
         <f t="array" ref="L46:M46">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C46,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D46)</f>
-        <v>107.27775962678545</v>
+        <v>109.8885409167067</v>
       </c>
       <c r="M46" s="4">
         <v>32.800000000000011</v>
@@ -4317,7 +4319,7 @@
         <v>32.800000000000011</v>
       </c>
     </row>
-    <row r="47" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>10</v>
       </c>
@@ -4331,28 +4333,28 @@
       </c>
       <c r="E47" s="22">
         <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D47)</f>
-        <v>78.19927836227312</v>
+        <v>79.639113717907378</v>
       </c>
       <c r="F47" s="22">
         <v>34.400000000000013</v>
       </c>
       <c r="G47" s="22">
         <f t="array" ref="G47:H47">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C47,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D47)</f>
-        <v>73.420803405672785</v>
+        <v>73.022605190669282</v>
       </c>
       <c r="H47" s="22">
         <v>34.400000000000013</v>
       </c>
       <c r="J47" s="22">
         <f t="array" ref="J47:K47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D47)</f>
-        <v>108.17200843514293</v>
+        <v>111.11419914269219</v>
       </c>
       <c r="K47" s="22">
         <v>34.400000000000013</v>
       </c>
       <c r="L47" s="4">
         <f t="array" ref="L47:M47">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C47,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D47)</f>
-        <v>108.17200843528977</v>
+        <v>111.11419914266931</v>
       </c>
       <c r="M47" s="4">
         <v>34.400000000000013</v>
@@ -4372,7 +4374,7 @@
         <v>34.400000000000013</v>
       </c>
     </row>
-    <row r="48" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>11</v>
       </c>
@@ -4386,28 +4388,28 @@
       </c>
       <c r="E48" s="22">
         <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D48)</f>
-        <v>83.996436113044595</v>
+        <v>85.642849229263248</v>
       </c>
       <c r="F48" s="22">
         <v>36.000000000000014</v>
       </c>
       <c r="G48" s="22">
         <f t="array" ref="G48:H48">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C48,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D48)</f>
-        <v>78.963313049622656</v>
+        <v>78.724808011871261</v>
       </c>
       <c r="H48" s="22">
         <v>36.000000000000014</v>
       </c>
       <c r="J48" s="22">
         <f t="array" ref="J48:K48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D48)</f>
-        <v>109.0637296592308</v>
+        <v>112.33760052098042</v>
       </c>
       <c r="K48" s="22">
         <v>36.000000000000014</v>
       </c>
       <c r="L48" s="4">
         <f t="array" ref="L48:M48">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C48,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D48)</f>
-        <v>109.06372965936002</v>
+        <v>112.33760052096096</v>
       </c>
       <c r="M48" s="4">
         <v>36.000000000000014</v>
@@ -4427,7 +4429,7 @@
         <v>36.000000000000014</v>
       </c>
     </row>
-    <row r="49" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>12</v>
       </c>
@@ -4441,28 +4443,28 @@
       </c>
       <c r="E49" s="22">
         <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D49)</f>
-        <v>90.05646731718133</v>
+        <v>91.857510058964223</v>
       </c>
       <c r="F49" s="22">
         <v>37.600000000000016</v>
       </c>
       <c r="G49" s="22">
         <f t="array" ref="G49:H49">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C49,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D49)</f>
-        <v>84.767093329385659</v>
+        <v>84.658093773453885</v>
       </c>
       <c r="H49" s="22">
         <v>37.600000000000016</v>
       </c>
       <c r="J49" s="22">
         <f t="array" ref="J49:K49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D49)</f>
-        <v>109.95313208936579</v>
+        <v>113.55876893629038</v>
       </c>
       <c r="K49" s="22">
         <v>37.600000000000016</v>
       </c>
       <c r="L49" s="4">
         <f t="array" ref="L49:M49">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C49,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D49)</f>
-        <v>109.95313208948566</v>
+        <v>113.55876893627267</v>
       </c>
       <c r="M49" s="4">
         <v>37.600000000000016</v>
@@ -4482,7 +4484,7 @@
         <v>37.600000000000016</v>
       </c>
     </row>
-    <row r="50" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>13</v>
       </c>
@@ -4496,28 +4498,28 @@
       </c>
       <c r="E50" s="22">
         <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D50)</f>
-        <v>96.373128831124362</v>
+        <v>98.246532708461643</v>
       </c>
       <c r="F50" s="22">
         <v>39.200000000000017</v>
       </c>
       <c r="G50" s="22">
         <f t="array" ref="G50:H50">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C50,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D50)</f>
-        <v>90.825032367490707</v>
+        <v>90.801651733168043</v>
       </c>
       <c r="H50" s="22">
         <v>39.200000000000017</v>
       </c>
       <c r="J50" s="22">
         <f t="array" ref="J50:K50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D50)</f>
-        <v>110.84040512518528</v>
+        <v>114.77773006209661</v>
       </c>
       <c r="K50" s="22">
         <v>39.200000000000017</v>
       </c>
       <c r="L50" s="4">
         <f t="array" ref="L50:M50">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C50,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D50)</f>
-        <v>110.84040512528938</v>
+        <v>114.77773006208156</v>
       </c>
       <c r="M50" s="4">
         <v>39.200000000000017</v>
@@ -4537,7 +4539,7 @@
         <v>39.200000000000017</v>
       </c>
     </row>
-    <row r="51" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>14</v>
       </c>
@@ -4551,7 +4553,7 @@
       </c>
       <c r="E51" s="22">
         <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D51)</f>
-        <v>102.78786874558877</v>
+        <v>104.66840811775796</v>
       </c>
       <c r="F51" s="22">
         <v>40.800000000000018</v>
@@ -4565,14 +4567,14 @@
       </c>
       <c r="J51" s="22">
         <f t="array" ref="J51:K51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D51)</f>
-        <v>111.72572027497709</v>
+        <v>115.99451110714006</v>
       </c>
       <c r="K51" s="22">
         <v>40.800000000000018</v>
       </c>
       <c r="L51" s="4">
         <f t="array" ref="L51:M51">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C51,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D51)</f>
-        <v>111.72572027506814</v>
+        <v>115.99451110712742</v>
       </c>
       <c r="M51" s="4">
         <v>40.800000000000018</v>
@@ -4592,7 +4594,7 @@
         <v>40.800000000000018</v>
       </c>
     </row>
-    <row r="52" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>15</v>
       </c>
@@ -4606,7 +4608,7 @@
       </c>
       <c r="E52" s="22">
         <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D52)</f>
-        <v>109.20502801446338</v>
+        <v>111.08766938759001</v>
       </c>
       <c r="F52" s="22">
         <v>42.40000000000002</v>
@@ -4620,14 +4622,14 @@
       </c>
       <c r="J52" s="22">
         <f t="array" ref="J52:K52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D52)</f>
-        <v>112.60923256887936</v>
+        <v>117.20914058510542</v>
       </c>
       <c r="K52" s="22">
         <v>42.40000000000002</v>
       </c>
       <c r="L52" s="4">
         <f t="array" ref="L52:M52">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C52,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D52)</f>
-        <v>112.60923256895943</v>
+        <v>117.20914058509474</v>
       </c>
       <c r="M52" s="4">
         <v>42.40000000000002</v>
@@ -4647,7 +4649,7 @@
         <v>42.40000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>16</v>
       </c>
@@ -4661,7 +4663,7 @@
       </c>
       <c r="E53" s="22">
         <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D53)</f>
-        <v>115.62171626747354</v>
+        <v>117.50628820122716</v>
       </c>
       <c r="F53" s="22">
         <v>44.000000000000021</v>
@@ -4675,14 +4677,14 @@
       </c>
       <c r="J53" s="22">
         <f t="array" ref="J53:K53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D53)</f>
-        <v>113.49108188540825</v>
+        <v>118.42164810573944</v>
       </c>
       <c r="K53" s="22">
         <v>44.000000000000021</v>
       </c>
       <c r="L53" s="4">
         <f t="array" ref="L53:M53">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C53,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D53)</f>
-        <v>113.49108188547574</v>
+        <v>118.4216481057307</v>
       </c>
       <c r="M53" s="4">
         <v>44.000000000000021</v>
@@ -4702,7 +4704,7 @@
         <v>44.000000000000021</v>
       </c>
     </row>
-    <row r="54" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>17</v>
       </c>
@@ -4716,7 +4718,7 @@
       </c>
       <c r="E54" s="22">
         <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D54)</f>
-        <v>122.03752698501756</v>
+        <v>123.92388237009114</v>
       </c>
       <c r="F54" s="22">
         <v>45.600000000000023</v>
@@ -4730,14 +4732,14 @@
       </c>
       <c r="J54" s="22">
         <f t="array" ref="J54:K54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D54)</f>
-        <v>114.37139419228215</v>
+        <v>119.63206418573826</v>
       </c>
       <c r="K54" s="22">
         <v>45.600000000000023</v>
       </c>
       <c r="L54" s="4">
         <f t="array" ref="L54:M54">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C54,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D54)</f>
-        <v>114.37139419234289</v>
+        <v>119.63206418573056</v>
       </c>
       <c r="M54" s="4">
         <v>45.600000000000023</v>
@@ -4757,7 +4759,7 @@
         <v>45.600000000000023</v>
       </c>
     </row>
-    <row r="55" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>18</v>
       </c>
@@ -4771,7 +4773,7 @@
       </c>
       <c r="E55" s="22">
         <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D55)</f>
-        <v>128.45211604090676</v>
+        <v>130.34012755038563</v>
       </c>
       <c r="F55" s="22">
         <v>47.200000000000024</v>
@@ -4785,14 +4787,14 @@
       </c>
       <c r="J55" s="22">
         <f t="array" ref="J55:K55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D55)</f>
-        <v>115.2502827034893</v>
+        <v>120.84042007783252</v>
       </c>
       <c r="K55" s="22">
         <v>47.200000000000024</v>
       </c>
       <c r="L55" s="4">
         <f t="array" ref="L55:M55">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C55,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D55)</f>
-        <v>115.25028270353826</v>
+        <v>120.84042007782637</v>
       </c>
       <c r="M55" s="4">
         <v>47.200000000000024</v>
@@ -4812,7 +4814,7 @@
         <v>47.200000000000024</v>
       </c>
     </row>
-    <row r="56" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <v>19</v>
       </c>
@@ -4826,7 +4828,7 @@
       </c>
       <c r="E56" s="22">
         <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D56)</f>
-        <v>134.86518962699688</v>
+        <v>136.75474619792575</v>
       </c>
       <c r="F56" s="22">
         <v>48.800000000000026</v>
@@ -4840,14 +4842,14 @@
       </c>
       <c r="J56" s="22">
         <f t="array" ref="J56:K56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D56)</f>
-        <v>116.1278489551844</v>
+        <v>122.04674761661066</v>
       </c>
       <c r="K56" s="22">
         <v>48.800000000000026</v>
       </c>
       <c r="L56" s="4">
         <f t="array" ref="L56:M56">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C56,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D56)</f>
-        <v>116.12784895522478</v>
+        <v>122.04674761660583</v>
       </c>
       <c r="M56" s="4">
         <v>48.800000000000026</v>
@@ -4867,7 +4869,7 @@
         <v>48.800000000000026</v>
       </c>
     </row>
-    <row r="57" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>20</v>
       </c>
@@ -4881,7 +4883,7 @@
       </c>
       <c r="E57" s="22">
         <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D57)</f>
-        <v>141.27649495888309</v>
+        <v>143.16749903425182</v>
       </c>
       <c r="F57" s="22">
         <v>50.400000000000027</v>
@@ -4895,14 +4897,14 @@
       </c>
       <c r="J57" s="22">
         <f t="array" ref="J57:K57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D57)</f>
-        <v>117.00418380367898</v>
+        <v>123.251079079696</v>
       </c>
       <c r="K57" s="22">
         <v>50.400000000000027</v>
       </c>
       <c r="L57" s="4">
         <f t="array" ref="L57:M57">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C57,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D57)</f>
-        <v>117.00418380371272</v>
+        <v>123.2510790796921</v>
       </c>
       <c r="M57" s="4">
         <v>50.400000000000027</v>
@@ -4922,7 +4924,7 @@
         <v>50.400000000000027</v>
       </c>
     </row>
-    <row r="58" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>21</v>
       </c>
@@ -4936,7 +4938,7 @@
       </c>
       <c r="E58" s="22">
         <f t="array" ref="E58:F58">[1]!MF_p_pipe_atma(Q_,fw_,C58-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D58)</f>
-        <v>147.68581302938338</v>
+        <v>149.5781783699735</v>
       </c>
       <c r="F58" s="22">
         <v>52.000000000000028</v>
@@ -4950,14 +4952,14 @@
       </c>
       <c r="J58" s="22">
         <f t="array" ref="J58:K58">[1]!MF_p_pipe_atma(Q_,fw_,C58-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D58)</f>
-        <v>117.87936834902844</v>
+        <v>124.45344706300666</v>
       </c>
       <c r="K58" s="22">
         <v>52.000000000000028</v>
       </c>
       <c r="L58" s="4">
         <f t="array" ref="L58:M58">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C58,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D58)</f>
-        <v>117.87936834905359</v>
+        <v>124.45344706300384</v>
       </c>
       <c r="M58" s="4">
         <v>52.000000000000028</v>
@@ -4977,7 +4979,7 @@
         <v>52.000000000000028</v>
       </c>
     </row>
-    <row r="59" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>22</v>
       </c>
@@ -4991,7 +4993,7 @@
       </c>
       <c r="E59" s="22">
         <f t="array" ref="E59:F59">[1]!MF_p_pipe_atma(Q_,fw_,C59-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D59)</f>
-        <v>154.09295289153488</v>
+        <v>155.98660282080647</v>
       </c>
       <c r="F59" s="22">
         <v>53.60000000000003</v>
@@ -5005,14 +5007,14 @@
       </c>
       <c r="J59" s="22">
         <f t="array" ref="J59:K59">[1]!MF_p_pipe_atma(Q_,fw_,C59-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D59)</f>
-        <v>118.75347478802409</v>
+        <v>125.65388436890814</v>
       </c>
       <c r="K59" s="22">
         <v>53.60000000000003</v>
       </c>
       <c r="L59" s="4">
         <f t="array" ref="L59:M59">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C59,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D59)</f>
-        <v>118.75347478804454</v>
+        <v>125.65388436890588</v>
       </c>
       <c r="M59" s="4">
         <v>53.60000000000003</v>
@@ -5032,7 +5034,7 @@
         <v>53.60000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>23</v>
       </c>
@@ -5046,7 +5048,7 @@
       </c>
       <c r="E60" s="22">
         <f t="array" ref="E60:F60">[1]!MF_p_pipe_atma(Q_,fw_,C60-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D60)</f>
-        <v>160.49774709966107</v>
+        <v>162.39261308188824</v>
       </c>
       <c r="F60" s="22">
         <v>55.200000000000031</v>
@@ -5060,14 +5062,14 @@
       </c>
       <c r="J60" s="22">
         <f t="array" ref="J60:K60">[1]!MF_p_pipe_atma(Q_,fw_,C60-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D60)</f>
-        <v>119.62656720053643</v>
+        <v>126.85242390615348</v>
       </c>
       <c r="K60" s="22">
         <v>55.200000000000031</v>
       </c>
       <c r="L60" s="4">
         <f t="array" ref="L60:M60">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C60,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D60)</f>
-        <v>119.62656720054817</v>
+        <v>126.8524239061522</v>
       </c>
       <c r="M60" s="4">
         <v>55.200000000000031</v>
@@ -5087,7 +5089,7 @@
         <v>55.200000000000031</v>
       </c>
     </row>
-    <row r="61" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>24</v>
       </c>
@@ -5101,7 +5103,7 @@
       </c>
       <c r="E61" s="22">
         <f t="array" ref="E61:F61">[1]!MF_p_pipe_atma(Q_,fw_,C61-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D61)</f>
-        <v>166.90004803847003</v>
+        <v>168.79606851628037</v>
       </c>
       <c r="F61" s="22">
         <v>56.800000000000033</v>
@@ -5115,14 +5117,14 @@
       </c>
       <c r="J61" s="22">
         <f t="array" ref="J61:K61">[1]!MF_p_pipe_atma(Q_,fw_,C61-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D61)</f>
-        <v>120.49870227314587</v>
+        <v>128.0490986005959</v>
       </c>
       <c r="K61" s="22">
         <v>56.800000000000033</v>
       </c>
       <c r="L61" s="4">
         <f t="array" ref="L61:M61">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C61,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D61)</f>
-        <v>120.49870227315228</v>
+        <v>128.04909860059524</v>
       </c>
       <c r="M61" s="4">
         <v>56.800000000000033</v>
@@ -5142,7 +5144,7 @@
         <v>56.800000000000033</v>
       </c>
     </row>
-    <row r="62" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>25</v>
       </c>
@@ -5156,7 +5158,7 @@
       </c>
       <c r="E62" s="22">
         <f t="array" ref="E62:F62">[1]!MF_p_pipe_atma(Q_,fw_,C62-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D62)</f>
-        <v>173.29972494029622</v>
+        <v>175.1968443763017</v>
       </c>
       <c r="F62" s="22">
         <v>58.400000000000034</v>
@@ -5170,14 +5172,14 @@
       </c>
       <c r="J62" s="22">
         <f t="array" ref="J62:K62">[1]!MF_p_pipe_atma(Q_,fw_,C62-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D62)</f>
-        <v>121.36992996407533</v>
+        <v>129.24394131572376</v>
       </c>
       <c r="K62" s="22">
         <v>58.400000000000034</v>
       </c>
       <c r="L62" s="4">
         <f t="array" ref="L62:M62">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C62,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D62)</f>
-        <v>121.36992996407831</v>
+        <v>129.24394131572345</v>
       </c>
       <c r="M62" s="4">
         <v>58.400000000000034</v>
@@ -5197,7 +5199,7 @@
         <v>58.400000000000034</v>
       </c>
     </row>
-    <row r="63" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>26</v>
       </c>
@@ -5211,7 +5213,7 @@
       </c>
       <c r="E63" s="22">
         <f t="array" ref="E63:F63">[1]!MF_p_pipe_atma(Q_,fw_,C63-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D63)</f>
-        <v>179.6966614416101</v>
+        <v>181.59482952216362</v>
       </c>
       <c r="F63" s="22">
         <v>60.000000000000036</v>
@@ -5226,14 +5228,14 @@
       </c>
       <c r="J63" s="22">
         <f t="array" ref="J63:K63">[1]!MF_p_pipe_atma(Q_,fw_,C63-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D63)</f>
-        <v>122.24029411328245</v>
+        <v>130.43698478215194</v>
       </c>
       <c r="K63" s="22">
         <v>60.000000000000036</v>
       </c>
       <c r="L63" s="15">
         <f>J63</f>
-        <v>122.24029411328245</v>
+        <v>130.43698478215194</v>
       </c>
       <c r="M63" s="15">
         <f>t1_</f>
@@ -5255,36 +5257,36 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>54</v>
       </c>
       <c r="C71">
-        <f t="array" ref="C71:F71">[1]!MF_calibr_pipe_m3day(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,0)</f>
-        <v>0.964935302734375</v>
+        <f t="array" ref="C71:F71">[1]!MF_calibr_pipe(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,0)</f>
+        <v>0.972564697265625</v>
       </c>
       <c r="D71">
-        <v>5.2556617769994318E-4</v>
+        <v>-4.4633850992426005E-4</v>
       </c>
       <c r="E71">
         <v>15</v>
       </c>
       <c r="F71" t="str">
-        <v>solve_equation_bisection: done by  15 iterations, tolerance 0,001</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+        <v>solve_equation_bisection: done by  15 iterations, tolerance 0.001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>55</v>
       </c>
       <c r="C72" t="str">
-        <f t="array" ref="C72:F72">[1]!MF_calibr_pipe_m3day(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,1)</f>
+        <f t="array" ref="C72:F72">[1]!MF_calibr_pipe(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,1)</f>
         <v>no solution</v>
       </c>
       <c r="D72">
@@ -5297,30 +5299,30 @@
         <v>solve_equation_bisection: values at segment's ends must have a different sign</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>56</v>
       </c>
       <c r="C73">
-        <f t="array" ref="C73:F73">[1]!MF_calibr_pipe_m3day(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,2)</f>
-        <v>49.503173828125</v>
+        <f t="array" ref="C73:F73">[1]!MF_calibr_pipe(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,2)</f>
+        <v>51.275634765625</v>
       </c>
       <c r="D73">
-        <v>4.2428581149067668E-4</v>
+        <v>5.4138524542679534E-4</v>
       </c>
       <c r="E73">
         <v>15</v>
       </c>
       <c r="F73" t="str">
-        <v>solve_equation_bisection: done by  15 iterations, tolerance 0,001</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+        <v>solve_equation_bisection: done by  15 iterations, tolerance 0.001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>57</v>
       </c>
       <c r="C74" t="str">
-        <f t="array" ref="C74:F74">[1]!MF_calibr_pipe_m3day(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,3)</f>
+        <f t="array" ref="C74:F74">[1]!MF_calibr_pipe(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,3)</f>
         <v>no solution</v>
       </c>
       <c r="D74">

--- a/exercises/ex051.MF_pipe_gas_water.xlsx
+++ b/exercises/ex051.MF_pipe_gas_water.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr updateLinks="always" codeName="Workbook________" hidePivotFieldList="1"/>
+  <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D484EDF-59BE-4B20-8FC7-DE65CDDBFE33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4678DD7F-B9A0-440F-90B1-BEB6EC8C7880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22755" yWindow="2025" windowWidth="22410" windowHeight="18795" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23670" yWindow="2040" windowWidth="22410" windowHeight="18795" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -975,79 +975,79 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.211484193703612</c:v>
+                  <c:v>41.455651944932434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.628756315582748</c:v>
+                  <c:v>48.041982021609435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.239325453331631</c:v>
+                  <c:v>54.624468987710678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.028785590984953</c:v>
+                  <c:v>61.202875300839395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.98132294217536</c:v>
+                  <c:v>67.777202295136817</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.080329070843682</c:v>
+                  <c:v>74.347451884669411</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.342786506415322</c:v>
+                  <c:v>80.913626152131869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73.866149934711174</c:v>
+                  <c:v>87.475727270215089</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.639113717907378</c:v>
+                  <c:v>94.033757468871656</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>85.642849229263248</c:v>
+                  <c:v>100.58771903424773</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91.857510058964223</c:v>
+                  <c:v>107.13761430693982</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>98.246532708461643</c:v>
+                  <c:v>113.68344568078297</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>104.66840811775796</c:v>
+                  <c:v>120.2252156019005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>111.08766938759001</c:v>
+                  <c:v>126.76292656778742</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117.50628820122716</c:v>
+                  <c:v>133.29658112644879</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>123.92388237009114</c:v>
+                  <c:v>139.82618187555229</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>130.34012755038563</c:v>
+                  <c:v>146.35173146159582</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>136.75474619792575</c:v>
+                  <c:v>152.87323257909014</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>143.16749903425182</c:v>
+                  <c:v>159.39068796975485</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>149.5781783699735</c:v>
+                  <c:v>165.90410042172903</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>155.98660282080647</c:v>
+                  <c:v>172.41347276879463</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>162.39261308188824</c:v>
+                  <c:v>178.91880788961316</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>168.79606851628037</c:v>
+                  <c:v>185.42010870697516</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>175.1968443763017</c:v>
+                  <c:v>191.91737818706235</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>181.59482952216362</c:v>
+                  <c:v>198.41061933872203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,79 +1179,79 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>30.603238030240913</c:v>
+                  <c:v>10.480497410105976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.554145749084981</c:v>
+                  <c:v>17.063499624094565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.718607639253271</c:v>
+                  <c:v>23.653823161100835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.097269540867529</c:v>
+                  <c:v>30.23509912676699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.658632676663366</c:v>
+                  <c:v>36.817553090725667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.407506204638921</c:v>
+                  <c:v>43.392947436643183</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.315339895447408</c:v>
+                  <c:v>49.95554239992714</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.36989687835991</c:v>
+                  <c:v>56.525468692405411</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.577826333941204</c:v>
+                  <c:v>63.086357713761146</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73.022605190669282</c:v>
+                  <c:v>69.648435320015722</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78.724808011871261</c:v>
+                  <c:v>76.20346417525532</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84.658093773453885</c:v>
+                  <c:v>82.745704805719441</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.801651733168043</c:v>
+                  <c:v>89.295288194893644</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97.147159459481017</c:v>
+                  <c:v>95.835845942743688</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103.55755043623742</c:v>
+                  <c:v>102.37760349017375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109.96804754529701</c:v>
+                  <c:v>108.91232315122551</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>116.37815953438593</c:v>
+                  <c:v>115.43426832105536</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>122.78747388396756</c:v>
+                  <c:v>121.96356936043198</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>129.19564092180482</c:v>
+                  <c:v>128.48384768532392</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>135.60236174508174</c:v>
+                  <c:v>135.00524398118975</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>142.0073789058938</c:v>
+                  <c:v>141.51948582061854</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>148.4104691354388</c:v>
+                  <c:v>148.02115201371998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>154.81143759451524</c:v>
+                  <c:v>154.53023924396072</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>161.21011328175143</c:v>
+                  <c:v>161.02954836596587</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>167.60634533116428</c:v>
+                  <c:v>167.52440565575799</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
                   <c:v>174</c:v>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.14</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="G38" s="22">
         <f t="array" ref="G38:H38">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C38,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D38)</f>
-        <v>30.603238030240913</v>
+        <v>10.480497410105976</v>
       </c>
       <c r="H38" s="22">
         <v>20</v>
@@ -3893,14 +3893,14 @@
       </c>
       <c r="E39" s="22">
         <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D39)</f>
-        <v>39.211484193703612</v>
+        <v>41.455651944932434</v>
       </c>
       <c r="F39" s="22">
         <v>21.6</v>
       </c>
       <c r="G39" s="22">
         <f t="array" ref="G39:H39">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C39,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D39)</f>
-        <v>34.554145749084981</v>
+        <v>17.063499624094565</v>
       </c>
       <c r="H39" s="22">
         <v>21.6</v>
@@ -3948,14 +3948,14 @@
       </c>
       <c r="E40" s="22">
         <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D40)</f>
-        <v>43.628756315582748</v>
+        <v>48.041982021609435</v>
       </c>
       <c r="F40" s="22">
         <v>23.200000000000003</v>
       </c>
       <c r="G40" s="22">
         <f t="array" ref="G40:H40">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C40,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D40)</f>
-        <v>38.718607639253271</v>
+        <v>23.653823161100835</v>
       </c>
       <c r="H40" s="22">
         <v>23.200000000000003</v>
@@ -4003,14 +4003,14 @@
       </c>
       <c r="E41" s="22">
         <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D41)</f>
-        <v>48.239325453331631</v>
+        <v>54.624468987710678</v>
       </c>
       <c r="F41" s="22">
         <v>24.800000000000004</v>
       </c>
       <c r="G41" s="22">
         <f t="array" ref="G41:H41">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C41,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D41)</f>
-        <v>43.097269540867529</v>
+        <v>30.23509912676699</v>
       </c>
       <c r="H41" s="22">
         <v>24.800000000000004</v>
@@ -4058,14 +4058,14 @@
       </c>
       <c r="E42" s="22">
         <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D42)</f>
-        <v>53.028785590984953</v>
+        <v>61.202875300839395</v>
       </c>
       <c r="F42" s="22">
         <v>26.400000000000006</v>
       </c>
       <c r="G42" s="22">
         <f t="array" ref="G42:H42">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C42,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D42)</f>
-        <v>47.658632676663366</v>
+        <v>36.817553090725667</v>
       </c>
       <c r="H42" s="22">
         <v>26.400000000000006</v>
@@ -4113,14 +4113,14 @@
       </c>
       <c r="E43" s="22">
         <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D43)</f>
-        <v>57.98132294217536</v>
+        <v>67.777202295136817</v>
       </c>
       <c r="F43" s="22">
         <v>28.000000000000007</v>
       </c>
       <c r="G43" s="22">
         <f t="array" ref="G43:H43">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C43,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D43)</f>
-        <v>52.407506204638921</v>
+        <v>43.392947436643183</v>
       </c>
       <c r="H43" s="22">
         <v>28.000000000000007</v>
@@ -4168,14 +4168,14 @@
       </c>
       <c r="E44" s="22">
         <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D44)</f>
-        <v>63.080329070843682</v>
+        <v>74.347451884669411</v>
       </c>
       <c r="F44" s="22">
         <v>29.600000000000009</v>
       </c>
       <c r="G44" s="22">
         <f t="array" ref="G44:H44">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C44,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D44)</f>
-        <v>57.315339895447408</v>
+        <v>49.95554239992714</v>
       </c>
       <c r="H44" s="22">
         <v>29.600000000000009</v>
@@ -4223,14 +4223,14 @@
       </c>
       <c r="E45" s="22">
         <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D45)</f>
-        <v>68.342786506415322</v>
+        <v>80.913626152131869</v>
       </c>
       <c r="F45" s="22">
         <v>31.20000000000001</v>
       </c>
       <c r="G45" s="22">
         <f t="array" ref="G45:H45">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C45,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D45)</f>
-        <v>62.36989687835991</v>
+        <v>56.525468692405411</v>
       </c>
       <c r="H45" s="22">
         <v>31.20000000000001</v>
@@ -4278,14 +4278,14 @@
       </c>
       <c r="E46" s="22">
         <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D46)</f>
-        <v>73.866149934711174</v>
+        <v>87.475727270215089</v>
       </c>
       <c r="F46" s="22">
         <v>32.800000000000011</v>
       </c>
       <c r="G46" s="22">
         <f t="array" ref="G46:H46">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C46,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D46)</f>
-        <v>67.577826333941204</v>
+        <v>63.086357713761146</v>
       </c>
       <c r="H46" s="22">
         <v>32.800000000000011</v>
@@ -4333,14 +4333,14 @@
       </c>
       <c r="E47" s="22">
         <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D47)</f>
-        <v>79.639113717907378</v>
+        <v>94.033757468871656</v>
       </c>
       <c r="F47" s="22">
         <v>34.400000000000013</v>
       </c>
       <c r="G47" s="22">
         <f t="array" ref="G47:H47">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C47,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D47)</f>
-        <v>73.022605190669282</v>
+        <v>69.648435320015722</v>
       </c>
       <c r="H47" s="22">
         <v>34.400000000000013</v>
@@ -4388,14 +4388,14 @@
       </c>
       <c r="E48" s="22">
         <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D48)</f>
-        <v>85.642849229263248</v>
+        <v>100.58771903424773</v>
       </c>
       <c r="F48" s="22">
         <v>36.000000000000014</v>
       </c>
       <c r="G48" s="22">
         <f t="array" ref="G48:H48">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C48,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D48)</f>
-        <v>78.724808011871261</v>
+        <v>76.20346417525532</v>
       </c>
       <c r="H48" s="22">
         <v>36.000000000000014</v>
@@ -4443,14 +4443,14 @@
       </c>
       <c r="E49" s="22">
         <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D49)</f>
-        <v>91.857510058964223</v>
+        <v>107.13761430693982</v>
       </c>
       <c r="F49" s="22">
         <v>37.600000000000016</v>
       </c>
       <c r="G49" s="22">
         <f t="array" ref="G49:H49">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C49,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D49)</f>
-        <v>84.658093773453885</v>
+        <v>82.745704805719441</v>
       </c>
       <c r="H49" s="22">
         <v>37.600000000000016</v>
@@ -4498,14 +4498,14 @@
       </c>
       <c r="E50" s="22">
         <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D50)</f>
-        <v>98.246532708461643</v>
+        <v>113.68344568078297</v>
       </c>
       <c r="F50" s="22">
         <v>39.200000000000017</v>
       </c>
       <c r="G50" s="22">
         <f t="array" ref="G50:H50">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C50,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D50)</f>
-        <v>90.801651733168043</v>
+        <v>89.295288194893644</v>
       </c>
       <c r="H50" s="22">
         <v>39.200000000000017</v>
@@ -4553,14 +4553,14 @@
       </c>
       <c r="E51" s="22">
         <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D51)</f>
-        <v>104.66840811775796</v>
+        <v>120.2252156019005</v>
       </c>
       <c r="F51" s="22">
         <v>40.800000000000018</v>
       </c>
       <c r="G51" s="22">
         <f t="array" ref="G51:H51">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C51,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D51)</f>
-        <v>97.147159459481017</v>
+        <v>95.835845942743688</v>
       </c>
       <c r="H51" s="22">
         <v>40.800000000000018</v>
@@ -4608,14 +4608,14 @@
       </c>
       <c r="E52" s="22">
         <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D52)</f>
-        <v>111.08766938759001</v>
+        <v>126.76292656778742</v>
       </c>
       <c r="F52" s="22">
         <v>42.40000000000002</v>
       </c>
       <c r="G52" s="22">
         <f t="array" ref="G52:H52">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C52,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D52)</f>
-        <v>103.55755043623742</v>
+        <v>102.37760349017375</v>
       </c>
       <c r="H52" s="22">
         <v>42.40000000000002</v>
@@ -4663,14 +4663,14 @@
       </c>
       <c r="E53" s="22">
         <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D53)</f>
-        <v>117.50628820122716</v>
+        <v>133.29658112644879</v>
       </c>
       <c r="F53" s="22">
         <v>44.000000000000021</v>
       </c>
       <c r="G53" s="22">
         <f t="array" ref="G53:H53">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C53,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D53)</f>
-        <v>109.96804754529701</v>
+        <v>108.91232315122551</v>
       </c>
       <c r="H53" s="22">
         <v>44.000000000000021</v>
@@ -4718,14 +4718,14 @@
       </c>
       <c r="E54" s="22">
         <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D54)</f>
-        <v>123.92388237009114</v>
+        <v>139.82618187555229</v>
       </c>
       <c r="F54" s="22">
         <v>45.600000000000023</v>
       </c>
       <c r="G54" s="22">
         <f t="array" ref="G54:H54">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C54,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D54)</f>
-        <v>116.37815953438593</v>
+        <v>115.43426832105536</v>
       </c>
       <c r="H54" s="22">
         <v>45.600000000000023</v>
@@ -4773,14 +4773,14 @@
       </c>
       <c r="E55" s="22">
         <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D55)</f>
-        <v>130.34012755038563</v>
+        <v>146.35173146159582</v>
       </c>
       <c r="F55" s="22">
         <v>47.200000000000024</v>
       </c>
       <c r="G55" s="22">
         <f t="array" ref="G55:H55">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C55,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D55)</f>
-        <v>122.78747388396756</v>
+        <v>121.96356936043198</v>
       </c>
       <c r="H55" s="22">
         <v>47.200000000000024</v>
@@ -4828,14 +4828,14 @@
       </c>
       <c r="E56" s="22">
         <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D56)</f>
-        <v>136.75474619792575</v>
+        <v>152.87323257909014</v>
       </c>
       <c r="F56" s="22">
         <v>48.800000000000026</v>
       </c>
       <c r="G56" s="22">
         <f t="array" ref="G56:H56">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C56,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D56)</f>
-        <v>129.19564092180482</v>
+        <v>128.48384768532392</v>
       </c>
       <c r="H56" s="22">
         <v>48.800000000000026</v>
@@ -4883,14 +4883,14 @@
       </c>
       <c r="E57" s="22">
         <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D57)</f>
-        <v>143.16749903425182</v>
+        <v>159.39068796975485</v>
       </c>
       <c r="F57" s="22">
         <v>50.400000000000027</v>
       </c>
       <c r="G57" s="22">
         <f t="array" ref="G57:H57">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C57,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D57)</f>
-        <v>135.60236174508174</v>
+        <v>135.00524398118975</v>
       </c>
       <c r="H57" s="22">
         <v>50.400000000000027</v>
@@ -4938,14 +4938,14 @@
       </c>
       <c r="E58" s="22">
         <f t="array" ref="E58:F58">[1]!MF_p_pipe_atma(Q_,fw_,C58-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D58)</f>
-        <v>149.5781783699735</v>
+        <v>165.90410042172903</v>
       </c>
       <c r="F58" s="22">
         <v>52.000000000000028</v>
       </c>
       <c r="G58" s="22">
         <f t="array" ref="G58:H58">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C58,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D58)</f>
-        <v>142.0073789058938</v>
+        <v>141.51948582061854</v>
       </c>
       <c r="H58" s="22">
         <v>52.000000000000028</v>
@@ -4993,14 +4993,14 @@
       </c>
       <c r="E59" s="22">
         <f t="array" ref="E59:F59">[1]!MF_p_pipe_atma(Q_,fw_,C59-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D59)</f>
-        <v>155.98660282080647</v>
+        <v>172.41347276879463</v>
       </c>
       <c r="F59" s="22">
         <v>53.60000000000003</v>
       </c>
       <c r="G59" s="22">
         <f t="array" ref="G59:H59">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C59,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D59)</f>
-        <v>148.4104691354388</v>
+        <v>148.02115201371998</v>
       </c>
       <c r="H59" s="22">
         <v>53.60000000000003</v>
@@ -5048,14 +5048,14 @@
       </c>
       <c r="E60" s="22">
         <f t="array" ref="E60:F60">[1]!MF_p_pipe_atma(Q_,fw_,C60-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D60)</f>
-        <v>162.39261308188824</v>
+        <v>178.91880788961316</v>
       </c>
       <c r="F60" s="22">
         <v>55.200000000000031</v>
       </c>
       <c r="G60" s="22">
         <f t="array" ref="G60:H60">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C60,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D60)</f>
-        <v>154.81143759451524</v>
+        <v>154.53023924396072</v>
       </c>
       <c r="H60" s="22">
         <v>55.200000000000031</v>
@@ -5103,14 +5103,14 @@
       </c>
       <c r="E61" s="22">
         <f t="array" ref="E61:F61">[1]!MF_p_pipe_atma(Q_,fw_,C61-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D61)</f>
-        <v>168.79606851628037</v>
+        <v>185.42010870697516</v>
       </c>
       <c r="F61" s="22">
         <v>56.800000000000033</v>
       </c>
       <c r="G61" s="22">
         <f t="array" ref="G61:H61">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C61,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D61)</f>
-        <v>161.21011328175143</v>
+        <v>161.02954836596587</v>
       </c>
       <c r="H61" s="22">
         <v>56.800000000000033</v>
@@ -5158,14 +5158,14 @@
       </c>
       <c r="E62" s="22">
         <f t="array" ref="E62:F62">[1]!MF_p_pipe_atma(Q_,fw_,C62-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D62)</f>
-        <v>175.1968443763017</v>
+        <v>191.91737818706235</v>
       </c>
       <c r="F62" s="22">
         <v>58.400000000000034</v>
       </c>
       <c r="G62" s="22">
         <f t="array" ref="G62:H62">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C62,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D62)</f>
-        <v>167.60634533116428</v>
+        <v>167.52440565575799</v>
       </c>
       <c r="H62" s="22">
         <v>58.400000000000034</v>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="E63" s="22">
         <f t="array" ref="E63:F63">[1]!MF_p_pipe_atma(Q_,fw_,C63-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D63)</f>
-        <v>181.59482952216362</v>
+        <v>198.41061933872203</v>
       </c>
       <c r="F63" s="22">
         <v>60.000000000000036</v>
@@ -5269,16 +5269,16 @@
       </c>
       <c r="C71">
         <f t="array" ref="C71:F71">[1]!MF_calibr_pipe(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,0)</f>
-        <v>0.972564697265625</v>
+        <v>0.8492584228515625</v>
       </c>
       <c r="D71">
-        <v>-4.4633850992426005E-4</v>
+        <v>-4.5635057706761017E-4</v>
       </c>
       <c r="E71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F71" t="str">
-        <v>solve_equation_bisection: done by  15 iterations, tolerance 0.001</v>
+        <v>solve_equation_bisection: done by  16 iterations, tolerance 0.001</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
@@ -5305,10 +5305,10 @@
       </c>
       <c r="C73">
         <f t="array" ref="C73:F73">[1]!MF_calibr_pipe(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,2)</f>
-        <v>51.275634765625</v>
+        <v>60.943603515625</v>
       </c>
       <c r="D73">
-        <v>5.4138524542679534E-4</v>
+        <v>8.7593733721291756E-4</v>
       </c>
       <c r="E73">
         <v>15</v>

--- a/exercises/ex051.MF_pipe_gas_water.xlsx
+++ b/exercises/ex051.MF_pipe_gas_water.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4678DD7F-B9A0-440F-90B1-BEB6EC8C7880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ABB888-4EEB-469E-B975-4C014D742CED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23670" yWindow="2040" windowWidth="22410" windowHeight="18795" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -975,79 +975,79 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.455651944932434</c:v>
+                  <c:v>39.195386069584345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.041982021609435</c:v>
+                  <c:v>43.596367607825293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.624468987710678</c:v>
+                  <c:v>48.19090658966946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.202875300839395</c:v>
+                  <c:v>52.965030246430423</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.777202295136817</c:v>
+                  <c:v>57.903311083898082</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.347451884669411</c:v>
+                  <c:v>62.989457369566061</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.913626152131869</c:v>
+                  <c:v>68.244288841505693</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87.475727270215089</c:v>
+                  <c:v>73.761937775165649</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.033757468871656</c:v>
+                  <c:v>79.529891064198083</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.58771903424773</c:v>
+                  <c:v>85.528959174693838</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>107.13761430693982</c:v>
+                  <c:v>91.739344310873406</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>113.68344568078297</c:v>
+                  <c:v>98.125838251943392</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>120.2252156019005</c:v>
+                  <c:v>104.54850760976223</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>126.76292656778742</c:v>
+                  <c:v>110.9676370066832</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>133.29658112644879</c:v>
+                  <c:v>117.38613459375499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>139.82618187555229</c:v>
+                  <c:v>123.8036166830706</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>146.35173146159582</c:v>
+                  <c:v>130.21975770983548</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>152.87323257909014</c:v>
+                  <c:v>136.6342791245722</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>159.39068796975485</c:v>
+                  <c:v>143.04694081290717</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>165.90410042172903</c:v>
+                  <c:v>149.45753438412947</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>172.41347276879463</c:v>
+                  <c:v>155.86587786074529</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>178.91880788961316</c:v>
+                  <c:v>162.27181143238082</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>185.42010870697516</c:v>
+                  <c:v>168.67519402837164</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>191.91737818706235</c:v>
+                  <c:v>175.07590052655803</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>198.41061933872203</c:v>
+                  <c:v>181.47381946194798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,79 +1179,79 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>10.480497410105976</c:v>
+                  <c:v>30.68905464509384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.063499624094565</c:v>
+                  <c:v>34.629655352571426</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.653823161100835</c:v>
+                  <c:v>38.782341226343362</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.23509912676699</c:v>
+                  <c:v>43.146816259126723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.817553090725667</c:v>
+                  <c:v>47.697803046202843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.392947436643183</c:v>
+                  <c:v>52.433655577540101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.95554239992714</c:v>
+                  <c:v>57.331202855048232</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.525468692405411</c:v>
+                  <c:v>62.375648574831295</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.086357713761146</c:v>
+                  <c:v>67.577826333941204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.648435320015722</c:v>
+                  <c:v>73.022605190669282</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76.20346417525532</c:v>
+                  <c:v>78.724808011871261</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82.745704805719441</c:v>
+                  <c:v>84.658093773453885</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89.295288194893644</c:v>
+                  <c:v>90.801651733168043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.835845942743688</c:v>
+                  <c:v>97.147159459481017</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>102.37760349017375</c:v>
+                  <c:v>103.55755043623742</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>108.91232315122551</c:v>
+                  <c:v>109.96804754529701</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>115.43426832105536</c:v>
+                  <c:v>116.37815953438593</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>121.96356936043198</c:v>
+                  <c:v>122.78747388396756</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>128.48384768532392</c:v>
+                  <c:v>129.19564092180482</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>135.00524398118975</c:v>
+                  <c:v>135.60236174508174</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>141.51948582061854</c:v>
+                  <c:v>142.0073789058938</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>148.02115201371998</c:v>
+                  <c:v>148.4104691354388</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>154.53023924396072</c:v>
+                  <c:v>154.81143759451524</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>161.02954836596587</c:v>
+                  <c:v>161.21011328175143</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>167.52440565575799</c:v>
+                  <c:v>167.60634533116428</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
                   <c:v>174</c:v>
@@ -3015,7 +3015,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="ESPbase"/>
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
@@ -3026,7 +3025,6 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3334,8 +3332,8 @@
   </sheetPr>
   <dimension ref="A1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3365,7 +3363,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.15</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3843,7 +3841,7 @@
       </c>
       <c r="G38" s="22">
         <f t="array" ref="G38:H38">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C38,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D38)</f>
-        <v>10.480497410105976</v>
+        <v>30.68905464509384</v>
       </c>
       <c r="H38" s="22">
         <v>20</v>
@@ -3893,14 +3891,14 @@
       </c>
       <c r="E39" s="22">
         <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D39)</f>
-        <v>41.455651944932434</v>
+        <v>39.195386069584345</v>
       </c>
       <c r="F39" s="22">
         <v>21.6</v>
       </c>
       <c r="G39" s="22">
         <f t="array" ref="G39:H39">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C39,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D39)</f>
-        <v>17.063499624094565</v>
+        <v>34.629655352571426</v>
       </c>
       <c r="H39" s="22">
         <v>21.6</v>
@@ -3948,14 +3946,14 @@
       </c>
       <c r="E40" s="22">
         <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D40)</f>
-        <v>48.041982021609435</v>
+        <v>43.596367607825293</v>
       </c>
       <c r="F40" s="22">
         <v>23.200000000000003</v>
       </c>
       <c r="G40" s="22">
         <f t="array" ref="G40:H40">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C40,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D40)</f>
-        <v>23.653823161100835</v>
+        <v>38.782341226343362</v>
       </c>
       <c r="H40" s="22">
         <v>23.200000000000003</v>
@@ -4003,14 +4001,14 @@
       </c>
       <c r="E41" s="22">
         <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D41)</f>
-        <v>54.624468987710678</v>
+        <v>48.19090658966946</v>
       </c>
       <c r="F41" s="22">
         <v>24.800000000000004</v>
       </c>
       <c r="G41" s="22">
         <f t="array" ref="G41:H41">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C41,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D41)</f>
-        <v>30.23509912676699</v>
+        <v>43.146816259126723</v>
       </c>
       <c r="H41" s="22">
         <v>24.800000000000004</v>
@@ -4058,14 +4056,14 @@
       </c>
       <c r="E42" s="22">
         <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D42)</f>
-        <v>61.202875300839395</v>
+        <v>52.965030246430423</v>
       </c>
       <c r="F42" s="22">
         <v>26.400000000000006</v>
       </c>
       <c r="G42" s="22">
         <f t="array" ref="G42:H42">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C42,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D42)</f>
-        <v>36.817553090725667</v>
+        <v>47.697803046202843</v>
       </c>
       <c r="H42" s="22">
         <v>26.400000000000006</v>
@@ -4113,14 +4111,14 @@
       </c>
       <c r="E43" s="22">
         <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D43)</f>
-        <v>67.777202295136817</v>
+        <v>57.903311083898082</v>
       </c>
       <c r="F43" s="22">
         <v>28.000000000000007</v>
       </c>
       <c r="G43" s="22">
         <f t="array" ref="G43:H43">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C43,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D43)</f>
-        <v>43.392947436643183</v>
+        <v>52.433655577540101</v>
       </c>
       <c r="H43" s="22">
         <v>28.000000000000007</v>
@@ -4168,14 +4166,14 @@
       </c>
       <c r="E44" s="22">
         <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D44)</f>
-        <v>74.347451884669411</v>
+        <v>62.989457369566061</v>
       </c>
       <c r="F44" s="22">
         <v>29.600000000000009</v>
       </c>
       <c r="G44" s="22">
         <f t="array" ref="G44:H44">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C44,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D44)</f>
-        <v>49.95554239992714</v>
+        <v>57.331202855048232</v>
       </c>
       <c r="H44" s="22">
         <v>29.600000000000009</v>
@@ -4223,14 +4221,14 @@
       </c>
       <c r="E45" s="22">
         <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D45)</f>
-        <v>80.913626152131869</v>
+        <v>68.244288841505693</v>
       </c>
       <c r="F45" s="22">
         <v>31.20000000000001</v>
       </c>
       <c r="G45" s="22">
         <f t="array" ref="G45:H45">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C45,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D45)</f>
-        <v>56.525468692405411</v>
+        <v>62.375648574831295</v>
       </c>
       <c r="H45" s="22">
         <v>31.20000000000001</v>
@@ -4278,14 +4276,14 @@
       </c>
       <c r="E46" s="22">
         <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D46)</f>
-        <v>87.475727270215089</v>
+        <v>73.761937775165649</v>
       </c>
       <c r="F46" s="22">
         <v>32.800000000000011</v>
       </c>
       <c r="G46" s="22">
         <f t="array" ref="G46:H46">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C46,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D46)</f>
-        <v>63.086357713761146</v>
+        <v>67.577826333941204</v>
       </c>
       <c r="H46" s="22">
         <v>32.800000000000011</v>
@@ -4333,14 +4331,14 @@
       </c>
       <c r="E47" s="22">
         <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D47)</f>
-        <v>94.033757468871656</v>
+        <v>79.529891064198083</v>
       </c>
       <c r="F47" s="22">
         <v>34.400000000000013</v>
       </c>
       <c r="G47" s="22">
         <f t="array" ref="G47:H47">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C47,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D47)</f>
-        <v>69.648435320015722</v>
+        <v>73.022605190669282</v>
       </c>
       <c r="H47" s="22">
         <v>34.400000000000013</v>
@@ -4388,14 +4386,14 @@
       </c>
       <c r="E48" s="22">
         <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D48)</f>
-        <v>100.58771903424773</v>
+        <v>85.528959174693838</v>
       </c>
       <c r="F48" s="22">
         <v>36.000000000000014</v>
       </c>
       <c r="G48" s="22">
         <f t="array" ref="G48:H48">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C48,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D48)</f>
-        <v>76.20346417525532</v>
+        <v>78.724808011871261</v>
       </c>
       <c r="H48" s="22">
         <v>36.000000000000014</v>
@@ -4443,14 +4441,14 @@
       </c>
       <c r="E49" s="22">
         <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D49)</f>
-        <v>107.13761430693982</v>
+        <v>91.739344310873406</v>
       </c>
       <c r="F49" s="22">
         <v>37.600000000000016</v>
       </c>
       <c r="G49" s="22">
         <f t="array" ref="G49:H49">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C49,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D49)</f>
-        <v>82.745704805719441</v>
+        <v>84.658093773453885</v>
       </c>
       <c r="H49" s="22">
         <v>37.600000000000016</v>
@@ -4498,14 +4496,14 @@
       </c>
       <c r="E50" s="22">
         <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D50)</f>
-        <v>113.68344568078297</v>
+        <v>98.125838251943392</v>
       </c>
       <c r="F50" s="22">
         <v>39.200000000000017</v>
       </c>
       <c r="G50" s="22">
         <f t="array" ref="G50:H50">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C50,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D50)</f>
-        <v>89.295288194893644</v>
+        <v>90.801651733168043</v>
       </c>
       <c r="H50" s="22">
         <v>39.200000000000017</v>
@@ -4553,14 +4551,14 @@
       </c>
       <c r="E51" s="22">
         <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D51)</f>
-        <v>120.2252156019005</v>
+        <v>104.54850760976223</v>
       </c>
       <c r="F51" s="22">
         <v>40.800000000000018</v>
       </c>
       <c r="G51" s="22">
         <f t="array" ref="G51:H51">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C51,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D51)</f>
-        <v>95.835845942743688</v>
+        <v>97.147159459481017</v>
       </c>
       <c r="H51" s="22">
         <v>40.800000000000018</v>
@@ -4608,14 +4606,14 @@
       </c>
       <c r="E52" s="22">
         <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D52)</f>
-        <v>126.76292656778742</v>
+        <v>110.9676370066832</v>
       </c>
       <c r="F52" s="22">
         <v>42.40000000000002</v>
       </c>
       <c r="G52" s="22">
         <f t="array" ref="G52:H52">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C52,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D52)</f>
-        <v>102.37760349017375</v>
+        <v>103.55755043623742</v>
       </c>
       <c r="H52" s="22">
         <v>42.40000000000002</v>
@@ -4663,14 +4661,14 @@
       </c>
       <c r="E53" s="22">
         <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D53)</f>
-        <v>133.29658112644879</v>
+        <v>117.38613459375499</v>
       </c>
       <c r="F53" s="22">
         <v>44.000000000000021</v>
       </c>
       <c r="G53" s="22">
         <f t="array" ref="G53:H53">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C53,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D53)</f>
-        <v>108.91232315122551</v>
+        <v>109.96804754529701</v>
       </c>
       <c r="H53" s="22">
         <v>44.000000000000021</v>
@@ -4718,14 +4716,14 @@
       </c>
       <c r="E54" s="22">
         <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D54)</f>
-        <v>139.82618187555229</v>
+        <v>123.8036166830706</v>
       </c>
       <c r="F54" s="22">
         <v>45.600000000000023</v>
       </c>
       <c r="G54" s="22">
         <f t="array" ref="G54:H54">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C54,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D54)</f>
-        <v>115.43426832105536</v>
+        <v>116.37815953438593</v>
       </c>
       <c r="H54" s="22">
         <v>45.600000000000023</v>
@@ -4773,14 +4771,14 @@
       </c>
       <c r="E55" s="22">
         <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D55)</f>
-        <v>146.35173146159582</v>
+        <v>130.21975770983548</v>
       </c>
       <c r="F55" s="22">
         <v>47.200000000000024</v>
       </c>
       <c r="G55" s="22">
         <f t="array" ref="G55:H55">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C55,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D55)</f>
-        <v>121.96356936043198</v>
+        <v>122.78747388396756</v>
       </c>
       <c r="H55" s="22">
         <v>47.200000000000024</v>
@@ -4828,14 +4826,14 @@
       </c>
       <c r="E56" s="22">
         <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D56)</f>
-        <v>152.87323257909014</v>
+        <v>136.6342791245722</v>
       </c>
       <c r="F56" s="22">
         <v>48.800000000000026</v>
       </c>
       <c r="G56" s="22">
         <f t="array" ref="G56:H56">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C56,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D56)</f>
-        <v>128.48384768532392</v>
+        <v>129.19564092180482</v>
       </c>
       <c r="H56" s="22">
         <v>48.800000000000026</v>
@@ -4883,14 +4881,14 @@
       </c>
       <c r="E57" s="22">
         <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D57)</f>
-        <v>159.39068796975485</v>
+        <v>143.04694081290717</v>
       </c>
       <c r="F57" s="22">
         <v>50.400000000000027</v>
       </c>
       <c r="G57" s="22">
         <f t="array" ref="G57:H57">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C57,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D57)</f>
-        <v>135.00524398118975</v>
+        <v>135.60236174508174</v>
       </c>
       <c r="H57" s="22">
         <v>50.400000000000027</v>
@@ -4938,14 +4936,14 @@
       </c>
       <c r="E58" s="22">
         <f t="array" ref="E58:F58">[1]!MF_p_pipe_atma(Q_,fw_,C58-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D58)</f>
-        <v>165.90410042172903</v>
+        <v>149.45753438412947</v>
       </c>
       <c r="F58" s="22">
         <v>52.000000000000028</v>
       </c>
       <c r="G58" s="22">
         <f t="array" ref="G58:H58">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C58,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D58)</f>
-        <v>141.51948582061854</v>
+        <v>142.0073789058938</v>
       </c>
       <c r="H58" s="22">
         <v>52.000000000000028</v>
@@ -4993,14 +4991,14 @@
       </c>
       <c r="E59" s="22">
         <f t="array" ref="E59:F59">[1]!MF_p_pipe_atma(Q_,fw_,C59-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D59)</f>
-        <v>172.41347276879463</v>
+        <v>155.86587786074529</v>
       </c>
       <c r="F59" s="22">
         <v>53.60000000000003</v>
       </c>
       <c r="G59" s="22">
         <f t="array" ref="G59:H59">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C59,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D59)</f>
-        <v>148.02115201371998</v>
+        <v>148.4104691354388</v>
       </c>
       <c r="H59" s="22">
         <v>53.60000000000003</v>
@@ -5048,14 +5046,14 @@
       </c>
       <c r="E60" s="22">
         <f t="array" ref="E60:F60">[1]!MF_p_pipe_atma(Q_,fw_,C60-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D60)</f>
-        <v>178.91880788961316</v>
+        <v>162.27181143238082</v>
       </c>
       <c r="F60" s="22">
         <v>55.200000000000031</v>
       </c>
       <c r="G60" s="22">
         <f t="array" ref="G60:H60">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C60,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D60)</f>
-        <v>154.53023924396072</v>
+        <v>154.81143759451524</v>
       </c>
       <c r="H60" s="22">
         <v>55.200000000000031</v>
@@ -5103,14 +5101,14 @@
       </c>
       <c r="E61" s="22">
         <f t="array" ref="E61:F61">[1]!MF_p_pipe_atma(Q_,fw_,C61-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D61)</f>
-        <v>185.42010870697516</v>
+        <v>168.67519402837164</v>
       </c>
       <c r="F61" s="22">
         <v>56.800000000000033</v>
       </c>
       <c r="G61" s="22">
         <f t="array" ref="G61:H61">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C61,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D61)</f>
-        <v>161.02954836596587</v>
+        <v>161.21011328175143</v>
       </c>
       <c r="H61" s="22">
         <v>56.800000000000033</v>
@@ -5158,14 +5156,14 @@
       </c>
       <c r="E62" s="22">
         <f t="array" ref="E62:F62">[1]!MF_p_pipe_atma(Q_,fw_,C62-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D62)</f>
-        <v>191.91737818706235</v>
+        <v>175.07590052655803</v>
       </c>
       <c r="F62" s="22">
         <v>58.400000000000034</v>
       </c>
       <c r="G62" s="22">
         <f t="array" ref="G62:H62">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C62,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D62)</f>
-        <v>167.52440565575799</v>
+        <v>167.60634533116428</v>
       </c>
       <c r="H62" s="22">
         <v>58.400000000000034</v>
@@ -5213,7 +5211,7 @@
       </c>
       <c r="E63" s="22">
         <f t="array" ref="E63:F63">[1]!MF_p_pipe_atma(Q_,fw_,C63-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D63)</f>
-        <v>198.41061933872203</v>
+        <v>181.47381946194798</v>
       </c>
       <c r="F63" s="22">
         <v>60.000000000000036</v>
@@ -5268,35 +5266,35 @@
         <v>54</v>
       </c>
       <c r="C71">
-        <f t="array" ref="C71:F71">[1]!MF_calibr_pipe(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,0)</f>
-        <v>0.8492584228515625</v>
-      </c>
-      <c r="D71">
-        <v>-4.5635057706761017E-4</v>
+        <f t="array" ref="C71:F71">[1]!MF_calibr_pipe(Q_,fw_,L_,G63,E38,1,PVT_str_1_,,id_,0,+t0_,t1_,,,,0)</f>
+        <v>0.9734649658203125</v>
+      </c>
+      <c r="D71" t="str">
+        <v>calibr_grav</v>
       </c>
       <c r="E71">
+        <v>1.4632945185155677E-4</v>
+      </c>
+      <c r="F71">
         <v>16</v>
-      </c>
-      <c r="F71" t="str">
-        <v>solve_equation_bisection: done by  16 iterations, tolerance 0.001</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>55</v>
       </c>
-      <c r="C72" t="str">
-        <f t="array" ref="C72:F72">[1]!MF_calibr_pipe(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,1)</f>
-        <v>no solution</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
+      <c r="C72">
+        <f t="array" ref="C72:F72">[1]!MF_calibr_pipe(Q_,fw_,L_,G63,E38,1,PVT_str_1_,,id_,0,+t0_,t1_,,,,1)</f>
+        <v>0.9735107421875</v>
+      </c>
+      <c r="D72" t="str">
+        <v>calibr_grav</v>
       </c>
       <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72" t="str">
-        <v>solve_equation_bisection: values at segment's ends must have a different sign</v>
+        <v>-2.3542444513680039E-4</v>
+      </c>
+      <c r="F72">
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
@@ -5304,35 +5302,35 @@
         <v>56</v>
       </c>
       <c r="C73">
-        <f t="array" ref="C73:F73">[1]!MF_calibr_pipe(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,2)</f>
-        <v>60.943603515625</v>
-      </c>
-      <c r="D73">
-        <v>8.7593733721291756E-4</v>
+        <f t="array" ref="C73:F73">[1]!MF_calibr_pipe(Q_,fw_,L_,G63,E38,1,PVT_str_1_,,id_,0,+t0_,t1_,,,,2)</f>
+        <v>0.973541259765625</v>
+      </c>
+      <c r="D73" t="str">
+        <v>calibr_grav</v>
       </c>
       <c r="E73">
+        <v>8.4400014915786414E-4</v>
+      </c>
+      <c r="F73">
         <v>15</v>
-      </c>
-      <c r="F73" t="str">
-        <v>solve_equation_bisection: done by  15 iterations, tolerance 0.001</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>57</v>
       </c>
-      <c r="C74" t="str">
-        <f t="array" ref="C74:F74">[1]!MF_calibr_pipe(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,3)</f>
-        <v>no solution</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
+      <c r="C74">
+        <f t="array" ref="C74:F74">[1]!MF_calibr_pipe(Q_,fw_,L_,G63,E38,1,PVT_str_1_,,id_,0,+t0_,t1_,,,,3)</f>
+        <v>0.973602294921875</v>
+      </c>
+      <c r="D74" t="str">
+        <v>calibr_grav</v>
       </c>
       <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74" t="str">
-        <v>solve_equation_bisection: values at segment's ends must have a different sign</v>
+        <v>-9.9914057064154349E-4</v>
+      </c>
+      <c r="F74">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
